--- a/BalanceSheet/LYB_bal.xlsx
+++ b/BalanceSheet/LYB_bal.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AN36"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -113,6 +113,7 @@
     <col min="38" max="38" bestFit="1" customWidth="1" width="16.5"/>
     <col min="39" max="39" bestFit="1" customWidth="1" width="16.5"/>
     <col min="40" max="40" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="41" max="41" bestFit="1" customWidth="1" width="16.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -122,120 +123,123 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44286.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44104.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>44012.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43921.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43738.0</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43646.0</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43555.0</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43373.0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43281.0</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43190.0</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43100.0</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43008.0</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>42916.0</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>42825.0</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>42735.0</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>42643.0</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>42551.0</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>42460.0</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>42369.0</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>42277.0</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>42185.0</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>42094.0</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>42004.0</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>41912.0</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>41820.0</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>41729.0</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>41639.0</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>41547.0</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>41455.0</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>41364.0</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>41274.0</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <v>41182.0</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <v>41090.0</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <v>40999.0</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AM1" s="2">
         <v>40908.0</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <v>40816.0</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <v>40724.0</v>
       </c>
     </row>
@@ -246,120 +250,123 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
+        <v>1846000000.0</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>2467000000.0</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D2" s="0" t="n">
         <v>2845000000.0</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>3229000000.0</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>1832000000.0</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>1084000000.0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>565000000.0</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>1360000000.0</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>781000000.0</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>1293000000.0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>1476000000.0</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>3319000000.0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>2882000000.0</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>2835000000.0</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <v>2506000000.0</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>2018000000.0</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>1662000000.0</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>2025000000.0</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>1834000000.0</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>2087000000.0</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>2654000000.0</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>1995000000.0</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>3077000000.0</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Y2" s="0" t="n">
         <v>3317000000.0</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Z2" s="0" t="n">
         <v>3096000000.0</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="AA2" s="0" t="n">
         <v>2626000000.0</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AB2" s="0" t="n">
         <v>2729000000.0</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AC2" s="0" t="n">
         <v>3331000000.0</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AD2" s="0" t="n">
         <v>4107000000.0</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AE2" s="0" t="n">
         <v>4460000000.0</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AF2" s="0" t="n">
         <v>4418000000.0</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AG2" s="0" t="n">
         <v>3235000000.0</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AH2" s="0" t="n">
         <v>2885000000.0</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AI2" s="0" t="n">
         <v>2737000000.0</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AJ2" s="0" t="n">
         <v>3546000000.0</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AK2" s="0" t="n">
         <v>1964000000.0</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AL2" s="0" t="n">
         <v>1679000000.0</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AM2" s="0" t="n">
         <v>1118000000.0</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AN2" s="0" t="n">
         <v>5901000000.0</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AO2" s="0" t="n">
         <v>4937000000.0</v>
       </c>
     </row>
@@ -370,120 +377,123 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
+        <v>3961000000.0</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>3599000000.0</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>2974000000.0</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>2588000000.0</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>3043000000.0</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>3280000000.0</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>3469000000.0</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>3758000000.0</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>3680000000.0</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>3503000000.0</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>4087000000.0</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>3889000000.0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>3859000000.0</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>3539000000.0</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>3275000000.0</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>3086000000.0</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>3292000000.0</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="S3" s="0" t="n">
         <v>2842000000.0</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="T3" s="0" t="n">
         <v>2852000000.0</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>2806000000.0</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="V3" s="0" t="n">
         <v>2683000000.0</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>2517000000.0</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>2924000000.0</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="Y3" s="0" t="n">
         <v>3373000000.0</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Z3" s="0" t="n">
         <v>3089000000.0</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AA3" s="0" t="n">
         <v>3448000000.0</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <v>4105000000.0</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <v>4264000000.0</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AD3" s="0" t="n">
         <v>4141000000.0</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AE3" s="0" t="n">
         <v>4030000000.0</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AF3" s="0" t="n">
         <v>4041000000.0</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <v>4023000000.0</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AH3" s="0" t="n">
         <v>3878000000.0</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AI3" s="0" t="n">
         <v>3904000000.0</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AJ3" s="0" t="n">
         <v>4083000000.0</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AK3" s="0" t="n">
         <v>3888000000.0</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AL3" s="0" t="n">
         <v>4209000000.0</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AM3" s="0" t="n">
         <v>3778000000.0</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AN3" s="0" t="n">
         <v>4038000000.0</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AO3" s="0" t="n">
         <v>4901000000.0</v>
       </c>
     </row>
@@ -494,120 +504,123 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
+        <v>4632000000.0</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>4293000000.0</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>3994000000.0</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>4110000000.0</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>4094000000.0</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>4525000000.0</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>4446000000.0</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>4685000000.0</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>4496000000.0</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>4515000000.0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>4596000000.0</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>4096000000.0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>4257000000.0</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>4217000000.0</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>4177000000.0</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>4007000000.0</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>3875000000.0</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>3809000000.0</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="T4" s="0" t="n">
         <v>4015000000.0</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="U4" s="0" t="n">
         <v>4009000000.0</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="V4" s="0" t="n">
         <v>3978000000.0</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="W4" s="0" t="n">
         <v>4051000000.0</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="X4" s="0" t="n">
         <v>4138000000.0</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="Y4" s="0" t="n">
         <v>4179000000.0</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Z4" s="0" t="n">
         <v>4267000000.0</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="AA4" s="0" t="n">
         <v>4517000000.0</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AB4" s="0" t="n">
         <v>5359000000.0</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AC4" s="0" t="n">
         <v>5326000000.0</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AD4" s="0" t="n">
         <v>5589000000.0</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AE4" s="0" t="n">
         <v>5279000000.0</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AF4" s="0" t="n">
         <v>5382000000.0</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AG4" s="0" t="n">
         <v>5197000000.0</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AH4" s="0" t="n">
         <v>5270000000.0</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AI4" s="0" t="n">
         <v>5075000000.0</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AJ4" s="0" t="n">
         <v>5234000000.0</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AK4" s="0" t="n">
         <v>5759000000.0</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AL4" s="0" t="n">
         <v>5208000000.0</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AM4" s="0" t="n">
         <v>5499000000.0</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AN4" s="0" t="n">
         <v>5682000000.0</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AO4" s="0" t="n">
         <v>5577000000.0</v>
       </c>
     </row>
@@ -617,26 +630,26 @@
           <t>Other current assets</t>
         </is>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>1163000000.0</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>935000000.0</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>892000000.0</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>844000000.0</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>504000000.0</v>
       </c>
-      <c r="G5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
           <t/>
@@ -798,6 +811,11 @@
         </is>
       </c>
       <c r="AN5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO5" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -810,120 +828,123 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
+        <v>11964000000.0</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>11634000000.0</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>10759000000.0</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>10477000000.0</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>9692000000.0</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>9510000000.0</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>9630000000.0</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>11088000000.0</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>10286000000.0</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>10566000000.0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>11383000000.0</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>12349000000.0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>12068000000.0</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>11738000000.0</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>11062000000.0</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>10075000000.0</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>9681000000.0</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>9599000000.0</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="T6" s="0" t="n">
         <v>9553000000.0</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="U6" s="0" t="n">
         <v>9983000000.0</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="V6" s="0" t="n">
         <v>10324000000.0</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>9789000000.0</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="X6" s="0" t="n">
         <v>11198000000.0</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="Y6" s="0" t="n">
         <v>11990000000.0</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Z6" s="0" t="n">
         <v>11647000000.0</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="AA6" s="0" t="n">
         <v>11645000000.0</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
         <v>12932000000.0</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AC6" s="0" t="n">
         <v>13705000000.0</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AD6" s="0" t="n">
         <v>14993000000.0</v>
       </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AE6" s="0" t="n">
         <v>14599000000.0</v>
       </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AF6" s="0" t="n">
         <v>14625000000.0</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AG6" s="0" t="n">
         <v>13032000000.0</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AH6" s="0" t="n">
         <v>12655000000.0</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AI6" s="0" t="n">
         <v>12286000000.0</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AJ6" s="0" t="n">
         <v>13395000000.0</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AK6" s="0" t="n">
         <v>12366000000.0</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AL6" s="0" t="n">
         <v>12098000000.0</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AM6" s="0" t="n">
         <v>11435000000.0</v>
       </c>
-      <c r="AM6" s="0" t="n">
+      <c r="AN6" s="0" t="n">
         <v>16718000000.0</v>
       </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AO6" s="0" t="n">
         <v>16513000000.0</v>
       </c>
     </row>
@@ -934,120 +955,123 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
+        <v>14390000000.0</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>15878000000.0</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>15519000000.0</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>15951000000.0</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>15840000000.0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>15598000000.0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>13669000000.0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>13285000000.0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>12797000000.0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>12477000000.0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>12022000000.0</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>11310000000.0</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="N7" s="0" t="n">
         <v>11249000000.0</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>10997000000.0</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>10737000000.0</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>10551000000.0</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <v>10361000000.0</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="S7" s="0" t="n">
         <v>10137000000.0</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="T7" s="0" t="n">
         <v>10057000000.0</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="U7" s="0" t="n">
         <v>9681000000.0</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="V7" s="0" t="n">
         <v>9373000000.0</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="W7" s="0" t="n">
         <v>8991000000.0</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="X7" s="0" t="n">
         <v>8793000000.0</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="Y7" s="0" t="n">
         <v>8636000000.0</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Z7" s="0" t="n">
         <v>8430000000.0</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="AA7" s="0" t="n">
         <v>8758000000.0</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AB7" s="0" t="n">
         <v>8600000000.0</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AC7" s="0" t="n">
         <v>8740000000.0</v>
       </c>
-      <c r="AC7" s="0" t="n">
+      <c r="AD7" s="0" t="n">
         <v>8556000000.0</v>
       </c>
-      <c r="AD7" s="0" t="n">
+      <c r="AE7" s="0" t="n">
         <v>8457000000.0</v>
       </c>
-      <c r="AE7" s="0" t="n">
+      <c r="AF7" s="0" t="n">
         <v>8223000000.0</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AG7" s="0" t="n">
         <v>7979000000.0</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AH7" s="0" t="n">
         <v>7779000000.0</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AI7" s="0" t="n">
         <v>7696000000.0</v>
       </c>
-      <c r="AI7" s="0" t="n">
+      <c r="AJ7" s="0" t="n">
         <v>7412000000.0</v>
       </c>
-      <c r="AJ7" s="0" t="n">
+      <c r="AK7" s="0" t="n">
         <v>7237000000.0</v>
       </c>
-      <c r="AK7" s="0" t="n">
+      <c r="AL7" s="0" t="n">
         <v>7426000000.0</v>
       </c>
-      <c r="AL7" s="0" t="n">
+      <c r="AM7" s="0" t="n">
         <v>7333000000.0</v>
       </c>
-      <c r="AM7" s="0" t="n">
+      <c r="AN7" s="0" t="n">
         <v>7363000000.0</v>
       </c>
-      <c r="AN7" s="0" t="n">
+      <c r="AO7" s="0" t="n">
         <v>7569000000.0</v>
       </c>
     </row>
@@ -1058,120 +1082,123 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
+        <v>4794000000.0</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>4973000000.0</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <v>2623000000.0</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="E8" s="0" t="n">
         <v>2120000000.0</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>2544000000.0</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="G8" s="0" t="n">
         <v>2383000000.0</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="H8" s="0" t="n">
         <v>2119000000.0</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="I8" s="0" t="n">
         <v>2112000000.0</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="J8" s="0" t="n">
         <v>2137000000.0</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="K8" s="0" t="n">
         <v>2103000000.0</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="L8" s="0" t="n">
         <v>2148000000.0</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>2050000000.0</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="N8" s="0" t="n">
         <v>2213000000.0</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <v>2072000000.0</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="P8" s="0" t="n">
         <v>2091000000.0</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="Q8" s="0" t="n">
         <v>2036000000.0</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="R8" s="0" t="n">
         <v>2101000000.0</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="S8" s="0" t="n">
         <v>2010000000.0</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="T8" s="0" t="n">
         <v>2097000000.0</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="U8" s="0" t="n">
         <v>2018000000.0</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="V8" s="0" t="n">
         <v>2150000000.0</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="W8" s="0" t="n">
         <v>2127000000.0</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="X8" s="0" t="n">
         <v>2084000000.0</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="Y8" s="0" t="n">
         <v>2095000000.0</v>
       </c>
-      <c r="Y8" s="0" t="n">
+      <c r="Z8" s="0" t="n">
         <v>1992000000.0</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="AA8" s="0" t="n">
         <v>2064000000.0</v>
       </c>
-      <c r="AA8" s="0" t="n">
+      <c r="AB8" s="0" t="n">
         <v>2141000000.0</v>
       </c>
-      <c r="AB8" s="0" t="n">
+      <c r="AC8" s="0" t="n">
         <v>2178000000.0</v>
       </c>
-      <c r="AC8" s="0" t="n">
+      <c r="AD8" s="0" t="n">
         <v>2179000000.0</v>
       </c>
-      <c r="AD8" s="0" t="n">
+      <c r="AE8" s="0" t="n">
         <v>2114000000.0</v>
       </c>
-      <c r="AE8" s="0" t="n">
+      <c r="AF8" s="0" t="n">
         <v>2202000000.0</v>
       </c>
-      <c r="AF8" s="0" t="n">
+      <c r="AG8" s="0" t="n">
         <v>2262000000.0</v>
       </c>
-      <c r="AG8" s="0" t="n">
+      <c r="AH8" s="0" t="n">
         <v>2429000000.0</v>
       </c>
-      <c r="AH8" s="0" t="n">
+      <c r="AI8" s="0" t="n">
         <v>2363000000.0</v>
       </c>
-      <c r="AI8" s="0" t="n">
+      <c r="AJ8" s="0" t="n">
         <v>2347000000.0</v>
       </c>
-      <c r="AJ8" s="0" t="n">
+      <c r="AK8" s="0" t="n">
         <v>2002000000.0</v>
       </c>
-      <c r="AK8" s="0" t="n">
+      <c r="AL8" s="0" t="n">
         <v>2092000000.0</v>
       </c>
-      <c r="AL8" s="0" t="n">
+      <c r="AM8" s="0" t="n">
         <v>2043000000.0</v>
       </c>
-      <c r="AM8" s="0" t="n">
+      <c r="AN8" s="0" t="n">
         <v>2083000000.0</v>
       </c>
-      <c r="AN8" s="0" t="n">
+      <c r="AO8" s="0" t="n">
         <v>2153000000.0</v>
       </c>
     </row>
@@ -1356,18 +1383,23 @@
           <t/>
         </is>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AK9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL9" s="0" t="n">
         <v>4000000.0</v>
       </c>
-      <c r="AL9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AM9" s="0" t="n">
+      <c r="AM9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AN9" s="0" t="n">
         <v>4000000.0</v>
       </c>
-      <c r="AN9" s="0" t="n">
+      <c r="AO9" s="0" t="n">
         <v>19000000.0</v>
       </c>
     </row>
@@ -1378,120 +1410,123 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
+        <v>2621000000.0</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>2704000000.0</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>2632000000.0</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>2586000000.0</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>2608000000.0</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>2760000000.0</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>2689000000.0</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>2740000000.0</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="J10" s="0" t="n">
         <v>2748000000.0</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>2779000000.0</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>2801000000.0</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>1090000000.0</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="N10" s="0" t="n">
         <v>1145000000.0</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>1138000000.0</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>1050000000.0</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>1058000000.0</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>1048000000.0</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>1078000000.0</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="T10" s="0" t="n">
         <v>1105000000.0</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="U10" s="0" t="n">
         <v>1130000000.0</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="V10" s="0" t="n">
         <v>1166000000.0</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="W10" s="0" t="n">
         <v>1176000000.0</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="X10" s="0" t="n">
         <v>1187000000.0</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="Y10" s="0" t="n">
         <v>1214000000.0</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Z10" s="0" t="n">
         <v>1228000000.0</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="AA10" s="0" t="n">
         <v>1335000000.0</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AB10" s="0" t="n">
         <v>1375000000.0</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AC10" s="0" t="n">
         <v>1440000000.0</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AD10" s="0" t="n">
         <v>1475000000.0</v>
       </c>
-      <c r="AD10" s="0" t="n">
+      <c r="AE10" s="0" t="n">
         <v>1509000000.0</v>
       </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AF10" s="0" t="n">
         <v>1532000000.0</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AG10" s="0" t="n">
         <v>1554000000.0</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AH10" s="0" t="n">
         <v>1581000000.0</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AI10" s="0" t="n">
         <v>1629000000.0</v>
       </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AJ10" s="0" t="n">
         <v>1658000000.0</v>
       </c>
-      <c r="AJ10" s="0" t="n">
+      <c r="AK10" s="0" t="n">
         <v>1679000000.0</v>
       </c>
-      <c r="AK10" s="0" t="n">
+      <c r="AL10" s="0" t="n">
         <v>1744000000.0</v>
       </c>
-      <c r="AL10" s="0" t="n">
+      <c r="AM10" s="0" t="n">
         <v>1762000000.0</v>
       </c>
-      <c r="AM10" s="0" t="n">
+      <c r="AN10" s="0" t="n">
         <v>1835000000.0</v>
       </c>
-      <c r="AN10" s="0" t="n">
+      <c r="AO10" s="0" t="n">
         <v>1931000000.0</v>
       </c>
     </row>
@@ -1502,120 +1537,123 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
+        <v>511000000.0</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>175000000.0</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>416000000.0</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>407000000.0</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>416000000.0</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>146000000.0</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>497000000.0</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>386000000.0</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>387000000.0</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>353000000.0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>342000000.0</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>224000000.0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>221000000.0</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>261000000.0</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>303000000.0</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>398000000.0</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>577000000.0</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>618000000.0</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="T11" s="0" t="n">
         <v>607000000.0</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="U11" s="0" t="n">
         <v>623000000.0</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>559000000.0</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="W11" s="0" t="n">
         <v>674000000.0</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="X11" s="0" t="n">
         <v>673000000.0</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="Y11" s="0" t="n">
         <v>670000000.0</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Z11" s="0" t="n">
         <v>709000000.0</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="AA11" s="0" t="n">
         <v>419000000.0</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AB11" s="0" t="n">
         <v>583000000.0</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AC11" s="0" t="n">
         <v>593000000.0</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AD11" s="0" t="n">
         <v>624000000.0</v>
       </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AE11" s="0" t="n">
         <v>619000000.0</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AF11" s="0" t="n">
         <v>229000000.0</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AG11" s="0" t="n">
         <v>221000000.0</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AH11" s="0" t="n">
         <v>233000000.0</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AI11" s="0" t="n">
         <v>246000000.0</v>
       </c>
-      <c r="AI11" s="0" t="n">
+      <c r="AJ11" s="0" t="n">
         <v>292000000.0</v>
       </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AK11" s="0" t="n">
         <v>261000000.0</v>
       </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AL11" s="0" t="n">
         <v>245000000.0</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AM11" s="0" t="n">
         <v>266000000.0</v>
       </c>
-      <c r="AM11" s="0" t="n">
+      <c r="AN11" s="0" t="n">
         <v>264000000.0</v>
       </c>
-      <c r="AN11" s="0" t="n">
+      <c r="AO11" s="0" t="n">
         <v>290000000.0</v>
       </c>
     </row>
@@ -1626,120 +1664,123 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
+        <v>23782000000.0</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>23769000000.0</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <v>21190000000.0</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>21064000000.0</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>21408000000.0</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>20925000000.0</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>20484000000.0</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>20083000000.0</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>19603000000.0</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>17712000000.0</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>17313000000.0</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>14674000000.0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>14828000000.0</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>14468000000.0</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>14181000000.0</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>14043000000.0</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>14087000000.0</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>13843000000.0</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="T12" s="0" t="n">
         <v>13866000000.0</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="U12" s="0" t="n">
         <v>13452000000.0</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>13248000000.0</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="W12" s="0" t="n">
         <v>12968000000.0</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="X12" s="0" t="n">
         <v>12737000000.0</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="Y12" s="0" t="n">
         <v>12615000000.0</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Z12" s="0" t="n">
         <v>12359000000.0</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="AA12" s="0" t="n">
         <v>12576000000.0</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AB12" s="0" t="n">
         <v>12699000000.0</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AC12" s="0" t="n">
         <v>12951000000.0</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AD12" s="0" t="n">
         <v>12834000000.0</v>
       </c>
-      <c r="AD12" s="0" t="n">
+      <c r="AE12" s="0" t="n">
         <v>12699000000.0</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AF12" s="0" t="n">
         <v>12186000000.0</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AG12" s="0" t="n">
         <v>12016000000.0</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AH12" s="0" t="n">
         <v>12022000000.0</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AI12" s="0" t="n">
         <v>11934000000.0</v>
       </c>
-      <c r="AI12" s="0" t="n">
+      <c r="AJ12" s="0" t="n">
         <v>11709000000.0</v>
       </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AK12" s="0" t="n">
         <v>11179000000.0</v>
       </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AL12" s="0" t="n">
         <v>11511000000.0</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AM12" s="0" t="n">
         <v>11404000000.0</v>
       </c>
-      <c r="AM12" s="0" t="n">
+      <c r="AN12" s="0" t="n">
         <v>11549000000.0</v>
       </c>
-      <c r="AN12" s="0" t="n">
+      <c r="AO12" s="0" t="n">
         <v>11962000000.0</v>
       </c>
     </row>
@@ -1750,120 +1791,123 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
+        <v>35746000000.0</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>35403000000.0</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>31949000000.0</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>31541000000.0</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>31100000000.0</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>30435000000.0</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>30114000000.0</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>31171000000.0</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="J13" s="0" t="n">
         <v>29889000000.0</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>28278000000.0</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>28696000000.0</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>27023000000.0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>26896000000.0</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>26206000000.0</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>25243000000.0</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>24118000000.0</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>23768000000.0</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>23442000000.0</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="T13" s="0" t="n">
         <v>23419000000.0</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="U13" s="0" t="n">
         <v>23435000000.0</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>23572000000.0</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="W13" s="0" t="n">
         <v>22757000000.0</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="X13" s="0" t="n">
         <v>23935000000.0</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="Y13" s="0" t="n">
         <v>24605000000.0</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Z13" s="0" t="n">
         <v>24006000000.0</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="AA13" s="0" t="n">
         <v>24221000000.0</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AB13" s="0" t="n">
         <v>25631000000.0</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AC13" s="0" t="n">
         <v>26656000000.0</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AD13" s="0" t="n">
         <v>27827000000.0</v>
       </c>
-      <c r="AD13" s="0" t="n">
+      <c r="AE13" s="0" t="n">
         <v>27298000000.0</v>
       </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AF13" s="0" t="n">
         <v>26811000000.0</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AG13" s="0" t="n">
         <v>25048000000.0</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AH13" s="0" t="n">
         <v>24677000000.0</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AI13" s="0" t="n">
         <v>24220000000.0</v>
       </c>
-      <c r="AI13" s="0" t="n">
+      <c r="AJ13" s="0" t="n">
         <v>25104000000.0</v>
       </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AK13" s="0" t="n">
         <v>23545000000.0</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AL13" s="0" t="n">
         <v>23609000000.0</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AM13" s="0" t="n">
         <v>22839000000.0</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AN13" s="0" t="n">
         <v>28267000000.0</v>
       </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AO13" s="0" t="n">
         <v>28475000000.0</v>
       </c>
     </row>
@@ -1874,120 +1918,123 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
+        <v>3282000000.0</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>3255000000.0</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="D14" s="0" t="n">
         <v>2874000000.0</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>1944000000.0</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>2403000000.0</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="G14" s="0" t="n">
         <v>2684000000.0</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <v>3201000000.0</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>3115000000.0</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="J14" s="0" t="n">
         <v>3187000000.0</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="K14" s="0" t="n">
         <v>3087000000.0</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>3555000000.0</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>3095000000.0</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>3010000000.0</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>2895000000.0</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>2735000000.0</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>2317000000.0</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>2627000000.0</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="S14" s="0" t="n">
         <v>2529000000.0</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="T14" s="0" t="n">
         <v>2329000000.0</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="U14" s="0" t="n">
         <v>2357000000.0</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="V14" s="0" t="n">
         <v>2243000000.0</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="W14" s="0" t="n">
         <v>2182000000.0</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="X14" s="0" t="n">
         <v>2450000000.0</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="Y14" s="0" t="n">
         <v>2755000000.0</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Z14" s="0" t="n">
         <v>2631000000.0</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="AA14" s="0" t="n">
         <v>3064000000.0</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AB14" s="0" t="n">
         <v>3431000000.0</v>
       </c>
-      <c r="AB14" s="0" t="n">
+      <c r="AC14" s="0" t="n">
         <v>3690000000.0</v>
       </c>
-      <c r="AC14" s="0" t="n">
+      <c r="AD14" s="0" t="n">
         <v>3642000000.0</v>
       </c>
-      <c r="AD14" s="0" t="n">
+      <c r="AE14" s="0" t="n">
         <v>3572000000.0</v>
       </c>
-      <c r="AE14" s="0" t="n">
+      <c r="AF14" s="0" t="n">
         <v>3241000000.0</v>
       </c>
-      <c r="AF14" s="0" t="n">
+      <c r="AG14" s="0" t="n">
         <v>3324000000.0</v>
       </c>
-      <c r="AG14" s="0" t="n">
+      <c r="AH14" s="0" t="n">
         <v>3217000000.0</v>
       </c>
-      <c r="AH14" s="0" t="n">
+      <c r="AI14" s="0" t="n">
         <v>3285000000.0</v>
       </c>
-      <c r="AI14" s="0" t="n">
+      <c r="AJ14" s="0" t="n">
         <v>3297000000.0</v>
       </c>
-      <c r="AJ14" s="0" t="n">
+      <c r="AK14" s="0" t="n">
         <v>3004000000.0</v>
       </c>
-      <c r="AK14" s="0" t="n">
+      <c r="AL14" s="0" t="n">
         <v>3545000000.0</v>
       </c>
-      <c r="AL14" s="0" t="n">
+      <c r="AM14" s="0" t="n">
         <v>3414000000.0</v>
       </c>
-      <c r="AM14" s="0" t="n">
+      <c r="AN14" s="0" t="n">
         <v>3307000000.0</v>
       </c>
-      <c r="AN14" s="0" t="n">
+      <c r="AO14" s="0" t="n">
         <v>3999000000.0</v>
       </c>
     </row>
@@ -1998,120 +2045,123 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
+        <v>1953000000.0</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>1883000000.0</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="D15" s="0" t="n">
         <v>1685000000.0</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>1579000000.0</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>1387000000.0</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="G15" s="0" t="n">
         <v>1822000000.0</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="H15" s="0" t="n">
         <v>1745000000.0</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="I15" s="0" t="n">
         <v>1607000000.0</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="J15" s="0" t="n">
         <v>1443000000.0</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>1536000000.0</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="L15" s="0" t="n">
         <v>1489000000.0</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>1306000000.0</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>1506000000.0</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>1812000000.0</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="P15" s="0" t="n">
         <v>1493000000.0</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>1251000000.0</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="R15" s="0" t="n">
         <v>1139000000.0</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="S15" s="0" t="n">
         <v>1415000000.0</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="T15" s="0" t="n">
         <v>1357000000.0</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="U15" s="0" t="n">
         <v>1374000000.0</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="V15" s="0" t="n">
         <v>1600000000.0</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="W15" s="0" t="n">
         <v>1810000000.0</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="X15" s="0" t="n">
         <v>1784000000.0</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="Y15" s="0" t="n">
         <v>1455000000.0</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Z15" s="0" t="n">
         <v>1482000000.0</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="AA15" s="0" t="n">
         <v>1554000000.0</v>
       </c>
-      <c r="AA15" s="0" t="n">
+      <c r="AB15" s="0" t="n">
         <v>1460000000.0</v>
       </c>
-      <c r="AB15" s="0" t="n">
+      <c r="AC15" s="0" t="n">
         <v>1310000000.0</v>
       </c>
-      <c r="AC15" s="0" t="n">
+      <c r="AD15" s="0" t="n">
         <v>1477000000.0</v>
       </c>
-      <c r="AD15" s="0" t="n">
+      <c r="AE15" s="0" t="n">
         <v>1299000000.0</v>
       </c>
-      <c r="AE15" s="0" t="n">
+      <c r="AF15" s="0" t="n">
         <v>1528000000.0</v>
       </c>
-      <c r="AF15" s="0" t="n">
+      <c r="AG15" s="0" t="n">
         <v>1047000000.0</v>
       </c>
-      <c r="AG15" s="0" t="n">
+      <c r="AH15" s="0" t="n">
         <v>1217000000.0</v>
       </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AI15" s="0" t="n">
         <v>1157000000.0</v>
       </c>
-      <c r="AI15" s="0" t="n">
+      <c r="AJ15" s="0" t="n">
         <v>1177000000.0</v>
       </c>
-      <c r="AJ15" s="0" t="n">
+      <c r="AK15" s="0" t="n">
         <v>915000000.0</v>
       </c>
-      <c r="AK15" s="0" t="n">
+      <c r="AL15" s="0" t="n">
         <v>1049000000.0</v>
       </c>
-      <c r="AL15" s="0" t="n">
+      <c r="AM15" s="0" t="n">
         <v>1242000000.0</v>
       </c>
-      <c r="AM15" s="0" t="n">
+      <c r="AN15" s="0" t="n">
         <v>1505000000.0</v>
       </c>
-      <c r="AN15" s="0" t="n">
+      <c r="AO15" s="0" t="n">
         <v>1613000000.0</v>
       </c>
     </row>
@@ -2122,120 +2172,123 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
+        <v>1640000000.0</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>981000000.0</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="D16" s="0" t="n">
         <v>618000000.0</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <v>662000000.0</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>1496000000.0</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="G16" s="0" t="n">
         <v>721000000.0</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="H16" s="0" t="n">
         <v>2442000000.0</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="I16" s="0" t="n">
         <v>2816000000.0</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="J16" s="0" t="n">
         <v>2382000000.0</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>890000000.0</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>1198000000.0</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>1050000000.0</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>82000000.0</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>70000000.0</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>384000000.0</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>563000000.0</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="R16" s="0" t="n">
         <v>613000000.0</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>596000000.0</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="T16" s="0" t="n">
         <v>624000000.0</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="U16" s="0" t="n">
         <v>620000000.0</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="V16" s="0" t="n">
         <v>598000000.0</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="W16" s="0" t="n">
         <v>357000000.0</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="X16" s="0" t="n">
         <v>576000000.0</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="Y16" s="0" t="n">
         <v>585000000.0</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Z16" s="0" t="n">
         <v>518000000.0</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="AA16" s="0" t="n">
         <v>350000000.0</v>
-      </c>
-      <c r="AA16" s="0" t="n">
-        <v>58000000.0</v>
       </c>
       <c r="AB16" s="0" t="n">
         <v>58000000.0</v>
       </c>
       <c r="AC16" s="0" t="n">
+        <v>58000000.0</v>
+      </c>
+      <c r="AD16" s="0" t="n">
         <v>61000000.0</v>
       </c>
-      <c r="AD16" s="0" t="n">
+      <c r="AE16" s="0" t="n">
         <v>59000000.0</v>
-      </c>
-      <c r="AE16" s="0" t="n">
-        <v>115000000.0</v>
       </c>
       <c r="AF16" s="0" t="n">
         <v>115000000.0</v>
       </c>
       <c r="AG16" s="0" t="n">
+        <v>115000000.0</v>
+      </c>
+      <c r="AH16" s="0" t="n">
         <v>116000000.0</v>
       </c>
-      <c r="AH16" s="0" t="n">
+      <c r="AI16" s="0" t="n">
         <v>96000000.0</v>
       </c>
-      <c r="AI16" s="0" t="n">
+      <c r="AJ16" s="0" t="n">
         <v>47000000.0</v>
       </c>
-      <c r="AJ16" s="0" t="n">
+      <c r="AK16" s="0" t="n">
         <v>48000000.0</v>
       </c>
-      <c r="AK16" s="0" t="n">
+      <c r="AL16" s="0" t="n">
         <v>42000000.0</v>
       </c>
-      <c r="AL16" s="0" t="n">
+      <c r="AM16" s="0" t="n">
         <v>52000000.0</v>
       </c>
-      <c r="AM16" s="0" t="n">
+      <c r="AN16" s="0" t="n">
         <v>51000000.0</v>
       </c>
-      <c r="AN16" s="0" t="n">
+      <c r="AO16" s="0" t="n">
         <v>52000000.0</v>
       </c>
     </row>
@@ -2350,58 +2403,63 @@
           <t/>
         </is>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="W17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X17" s="0" t="n">
         <v>383000000.0</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="Y17" s="0" t="n">
         <v>434000000.0</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Z17" s="0" t="n">
         <v>429000000.0</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="AA17" s="0" t="n">
         <v>469000000.0</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AB17" s="0" t="n">
         <v>685000000.0</v>
       </c>
-      <c r="AB17" s="0" t="n">
+      <c r="AC17" s="0" t="n">
         <v>570000000.0</v>
       </c>
-      <c r="AC17" s="0" t="n">
+      <c r="AD17" s="0" t="n">
         <v>540000000.0</v>
       </c>
-      <c r="AD17" s="0" t="n">
+      <c r="AE17" s="0" t="n">
         <v>580000000.0</v>
       </c>
-      <c r="AE17" s="0" t="n">
+      <c r="AF17" s="0" t="n">
         <v>494000000.0</v>
       </c>
-      <c r="AF17" s="0" t="n">
+      <c r="AG17" s="0" t="n">
         <v>550000000.0</v>
       </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AH17" s="0" t="n">
         <v>557000000.0</v>
       </c>
-      <c r="AH17" s="0" t="n">
+      <c r="AI17" s="0" t="n">
         <v>558000000.0</v>
       </c>
-      <c r="AI17" s="0" t="n">
+      <c r="AJ17" s="0" t="n">
         <v>304000000.0</v>
       </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AK17" s="0" t="n">
         <v>277000000.0</v>
-      </c>
-      <c r="AK17" s="0" t="n">
-        <v>310000000.0</v>
       </c>
       <c r="AL17" s="0" t="n">
         <v>310000000.0</v>
       </c>
       <c r="AM17" s="0" t="n">
+        <v>310000000.0</v>
+      </c>
+      <c r="AN17" s="0" t="n">
         <v>315000000.0</v>
       </c>
-      <c r="AN17" s="0" t="n">
+      <c r="AO17" s="0" t="n">
         <v>315000000.0</v>
       </c>
     </row>
@@ -2411,26 +2469,26 @@
           <t>Other current liabilities</t>
         </is>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>1506000000.0</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="D18" s="0" t="n">
         <v>1685000000.0</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>1579000000.0</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>1387000000.0</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>1483000000.0</v>
       </c>
-      <c r="G18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2592,6 +2650,11 @@
         </is>
       </c>
       <c r="AN18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO18" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2604,120 +2667,123 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
+        <v>6875000000.0</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>5502000000.0</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="D19" s="0" t="n">
         <v>4782000000.0</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="E19" s="0" t="n">
         <v>4435000000.0</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="F19" s="0" t="n">
         <v>5521000000.0</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>5198000000.0</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="H19" s="0" t="n">
         <v>7388000000.0</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <v>7538000000.0</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>7012000000.0</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>5513000000.0</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="L19" s="0" t="n">
         <v>6242000000.0</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>5451000000.0</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="N19" s="0" t="n">
         <v>4598000000.0</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="O19" s="0" t="n">
         <v>4777000000.0</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="P19" s="0" t="n">
         <v>4612000000.0</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>4131000000.0</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="R19" s="0" t="n">
         <v>4379000000.0</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="S19" s="0" t="n">
         <v>4540000000.0</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="T19" s="0" t="n">
         <v>4310000000.0</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="U19" s="0" t="n">
         <v>4351000000.0</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="V19" s="0" t="n">
         <v>4441000000.0</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="W19" s="0" t="n">
         <v>4349000000.0</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="X19" s="0" t="n">
         <v>5193000000.0</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="Y19" s="0" t="n">
         <v>5229000000.0</v>
       </c>
-      <c r="Y19" s="0" t="n">
+      <c r="Z19" s="0" t="n">
         <v>5060000000.0</v>
       </c>
-      <c r="Z19" s="0" t="n">
+      <c r="AA19" s="0" t="n">
         <v>5437000000.0</v>
       </c>
-      <c r="AA19" s="0" t="n">
+      <c r="AB19" s="0" t="n">
         <v>5634000000.0</v>
       </c>
-      <c r="AB19" s="0" t="n">
+      <c r="AC19" s="0" t="n">
         <v>5628000000.0</v>
       </c>
-      <c r="AC19" s="0" t="n">
+      <c r="AD19" s="0" t="n">
         <v>5720000000.0</v>
       </c>
-      <c r="AD19" s="0" t="n">
+      <c r="AE19" s="0" t="n">
         <v>5510000000.0</v>
       </c>
-      <c r="AE19" s="0" t="n">
+      <c r="AF19" s="0" t="n">
         <v>5378000000.0</v>
       </c>
-      <c r="AF19" s="0" t="n">
+      <c r="AG19" s="0" t="n">
         <v>5036000000.0</v>
       </c>
-      <c r="AG19" s="0" t="n">
+      <c r="AH19" s="0" t="n">
         <v>5107000000.0</v>
       </c>
-      <c r="AH19" s="0" t="n">
+      <c r="AI19" s="0" t="n">
         <v>5096000000.0</v>
       </c>
-      <c r="AI19" s="0" t="n">
+      <c r="AJ19" s="0" t="n">
         <v>4825000000.0</v>
       </c>
-      <c r="AJ19" s="0" t="n">
+      <c r="AK19" s="0" t="n">
         <v>4244000000.0</v>
       </c>
-      <c r="AK19" s="0" t="n">
+      <c r="AL19" s="0" t="n">
         <v>4946000000.0</v>
       </c>
-      <c r="AL19" s="0" t="n">
+      <c r="AM19" s="0" t="n">
         <v>5018000000.0</v>
       </c>
-      <c r="AM19" s="0" t="n">
+      <c r="AN19" s="0" t="n">
         <v>5178000000.0</v>
       </c>
-      <c r="AN19" s="0" t="n">
+      <c r="AO19" s="0" t="n">
         <v>5979000000.0</v>
       </c>
     </row>
@@ -2728,120 +2794,123 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
+        <v>13785000000.0</v>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>16508000000.0</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="D20" s="0" t="n">
         <v>14881000000.0</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="E20" s="0" t="n">
         <v>14834000000.0</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>13351000000.0</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="G20" s="0" t="n">
         <v>12830000000.0</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <v>9628000000.0</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>7586000000.0</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>7522000000.0</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>8497000000.0</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>7471000000.0</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>7490000000.0</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="N20" s="0" t="n">
         <v>8531000000.0</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>8549000000.0</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="P20" s="0" t="n">
         <v>8531000000.0</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>8496000000.0</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="R20" s="0" t="n">
         <v>8419000000.0</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="S20" s="0" t="n">
         <v>8385000000.0</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="T20" s="0" t="n">
         <v>8464000000.0</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="U20" s="0" t="n">
         <v>8485000000.0</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="V20" s="0" t="n">
         <v>8504000000.0</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="W20" s="0" t="n">
         <v>7671000000.0</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="X20" s="0" t="n">
         <v>7742000000.0</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="Y20" s="0" t="n">
         <v>7728000000.0</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Z20" s="0" t="n">
         <v>7749000000.0</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="AA20" s="0" t="n">
         <v>6695000000.0</v>
       </c>
-      <c r="AA20" s="0" t="n">
+      <c r="AB20" s="0" t="n">
         <v>6753000000.0</v>
-      </c>
-      <c r="AB20" s="0" t="n">
-        <v>6766000000.0</v>
       </c>
       <c r="AC20" s="0" t="n">
         <v>6766000000.0</v>
       </c>
       <c r="AD20" s="0" t="n">
+        <v>6766000000.0</v>
+      </c>
+      <c r="AE20" s="0" t="n">
         <v>5776000000.0</v>
       </c>
-      <c r="AE20" s="0" t="n">
+      <c r="AF20" s="0" t="n">
         <v>5774000000.0</v>
       </c>
-      <c r="AF20" s="0" t="n">
+      <c r="AG20" s="0" t="n">
         <v>4306000000.0</v>
       </c>
-      <c r="AG20" s="0" t="n">
+      <c r="AH20" s="0" t="n">
         <v>4307000000.0</v>
       </c>
-      <c r="AH20" s="0" t="n">
+      <c r="AI20" s="0" t="n">
         <v>4304000000.0</v>
-      </c>
-      <c r="AI20" s="0" t="n">
-        <v>4305000000.0</v>
       </c>
       <c r="AJ20" s="0" t="n">
         <v>4305000000.0</v>
       </c>
       <c r="AK20" s="0" t="n">
+        <v>4305000000.0</v>
+      </c>
+      <c r="AL20" s="0" t="n">
         <v>3984000000.0</v>
       </c>
-      <c r="AL20" s="0" t="n">
+      <c r="AM20" s="0" t="n">
         <v>3980000000.0</v>
       </c>
-      <c r="AM20" s="0" t="n">
+      <c r="AN20" s="0" t="n">
         <v>5782000000.0</v>
       </c>
-      <c r="AN20" s="0" t="n">
+      <c r="AO20" s="0" t="n">
         <v>5813000000.0</v>
       </c>
     </row>
@@ -2852,120 +2921,123 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
+        <v>2403000000.0</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>2759000000.0</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="D21" s="0" t="n">
         <v>1764000000.0</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="E21" s="0" t="n">
         <v>1653000000.0</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <v>2029000000.0</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="G21" s="0" t="n">
         <v>1997000000.0</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="H21" s="0" t="n">
         <v>2018000000.0</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>2008000000.0</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>1967000000.0</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>1975000000.0</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>1774000000.0</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>1674000000.0</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="N21" s="0" t="n">
         <v>1688000000.0</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="O21" s="0" t="n">
         <v>1655000000.0</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="P21" s="0" t="n">
         <v>2447000000.0</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>2370000000.0</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="R21" s="0" t="n">
         <v>2353000000.0</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="S21" s="0" t="n">
         <v>2331000000.0</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="T21" s="0" t="n">
         <v>2387000000.0</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="U21" s="0" t="n">
         <v>2149000000.0</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="V21" s="0" t="n">
         <v>2134000000.0</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="W21" s="0" t="n">
         <v>2127000000.0</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="X21" s="0" t="n">
         <v>1604000000.0</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="Y21" s="0" t="n">
         <v>1635000000.0</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Z21" s="0" t="n">
         <v>1653000000.0</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="AA21" s="0" t="n">
         <v>1623000000.0</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AB21" s="0" t="n">
         <v>1574000000.0</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AC21" s="0" t="n">
         <v>1623000000.0</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AD21" s="0" t="n">
         <v>1677000000.0</v>
       </c>
-      <c r="AD21" s="0" t="n">
+      <c r="AE21" s="0" t="n">
         <v>1659000000.0</v>
       </c>
-      <c r="AE21" s="0" t="n">
+      <c r="AF21" s="0" t="n">
         <v>1472000000.0</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AG21" s="0" t="n">
         <v>1312000000.0</v>
       </c>
-      <c r="AG21" s="0" t="n">
+      <c r="AH21" s="0" t="n">
         <v>1277000000.0</v>
       </c>
-      <c r="AH21" s="0" t="n">
+      <c r="AI21" s="0" t="n">
         <v>1314000000.0</v>
       </c>
-      <c r="AI21" s="0" t="n">
+      <c r="AJ21" s="0" t="n">
         <v>1460000000.0</v>
       </c>
-      <c r="AJ21" s="0" t="n">
+      <c r="AK21" s="0" t="n">
         <v>1245000000.0</v>
       </c>
-      <c r="AK21" s="0" t="n">
+      <c r="AL21" s="0" t="n">
         <v>1035000000.0</v>
       </c>
-      <c r="AL21" s="0" t="n">
+      <c r="AM21" s="0" t="n">
         <v>917000000.0</v>
       </c>
-      <c r="AM21" s="0" t="n">
+      <c r="AN21" s="0" t="n">
         <v>1204000000.0</v>
       </c>
-      <c r="AN21" s="0" t="n">
+      <c r="AO21" s="0" t="n">
         <v>947000000.0</v>
       </c>
     </row>
@@ -3003,13 +3075,11 @@
         <v>116000000.0</v>
       </c>
       <c r="K22" s="0" t="n">
+        <v>116000000.0</v>
+      </c>
+      <c r="L22" s="0" t="n">
         <v>123000000.0</v>
       </c>
-      <c r="L22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="M22" s="0" t="inlineStr">
         <is>
           <t/>
@@ -3146,6 +3216,11 @@
         </is>
       </c>
       <c r="AN22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO22" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3158,120 +3233,123 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
+        <v>2554000000.0</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>2957000000.0</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="D23" s="0" t="n">
         <v>3038000000.0</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>2968000000.0</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>2808000000.0</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="G23" s="0" t="n">
         <v>2213000000.0</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="H23" s="0" t="n">
         <v>1801000000.0</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>1876000000.0</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>1830000000.0</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>1897000000.0</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>2017000000.0</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>1805000000.0</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="N23" s="0" t="n">
         <v>2350000000.0</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="O23" s="0" t="n">
         <v>2275000000.0</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="P23" s="0" t="n">
         <v>2326000000.0</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="Q23" s="0" t="n">
         <v>2253000000.0</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="R23" s="0" t="n">
         <v>2130000000.0</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="S23" s="0" t="n">
         <v>2113000000.0</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="T23" s="0" t="n">
         <v>2151000000.0</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="U23" s="0" t="n">
         <v>2143000000.0</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="V23" s="0" t="n">
         <v>2125000000.0</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="W23" s="0" t="n">
         <v>2036000000.0</v>
       </c>
-      <c r="W23" s="0" t="n">
+      <c r="X23" s="0" t="n">
         <v>2044000000.0</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="Y23" s="0" t="n">
         <v>2063000000.0</v>
       </c>
-      <c r="Y23" s="0" t="n">
+      <c r="Z23" s="0" t="n">
         <v>2038000000.0</v>
       </c>
-      <c r="Z23" s="0" t="n">
+      <c r="AA23" s="0" t="n">
         <v>2122000000.0</v>
       </c>
-      <c r="AA23" s="0" t="n">
+      <c r="AB23" s="0" t="n">
         <v>1795000000.0</v>
       </c>
-      <c r="AB23" s="0" t="n">
+      <c r="AC23" s="0" t="n">
         <v>1851000000.0</v>
       </c>
-      <c r="AC23" s="0" t="n">
+      <c r="AD23" s="0" t="n">
         <v>1838000000.0</v>
       </c>
-      <c r="AD23" s="0" t="n">
+      <c r="AE23" s="0" t="n">
         <v>1839000000.0</v>
       </c>
-      <c r="AE23" s="0" t="n">
+      <c r="AF23" s="0" t="n">
         <v>2278000000.0</v>
       </c>
-      <c r="AF23" s="0" t="n">
+      <c r="AG23" s="0" t="n">
         <v>2325000000.0</v>
       </c>
-      <c r="AG23" s="0" t="n">
+      <c r="AH23" s="0" t="n">
         <v>2306000000.0</v>
       </c>
-      <c r="AH23" s="0" t="n">
+      <c r="AI23" s="0" t="n">
         <v>2327000000.0</v>
       </c>
-      <c r="AI23" s="0" t="n">
+      <c r="AJ23" s="0" t="n">
         <v>2153000000.0</v>
       </c>
-      <c r="AJ23" s="0" t="n">
+      <c r="AK23" s="0" t="n">
         <v>2208000000.0</v>
       </c>
-      <c r="AK23" s="0" t="n">
+      <c r="AL23" s="0" t="n">
         <v>2281000000.0</v>
       </c>
-      <c r="AL23" s="0" t="n">
+      <c r="AM23" s="0" t="n">
         <v>2277000000.0</v>
       </c>
-      <c r="AM23" s="0" t="n">
+      <c r="AN23" s="0" t="n">
         <v>2021000000.0</v>
       </c>
-      <c r="AN23" s="0" t="n">
+      <c r="AO23" s="0" t="n">
         <v>2110000000.0</v>
       </c>
     </row>
@@ -3282,120 +3360,123 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
+        <v>20057000000.0</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>21913000000.0</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="D24" s="0" t="n">
         <v>19844000000.0</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="E24" s="0" t="n">
         <v>19729000000.0</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="F24" s="0" t="n">
         <v>18236000000.0</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="G24" s="0" t="n">
         <v>17174000000.0</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="H24" s="0" t="n">
         <v>14820000000.0</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="I24" s="0" t="n">
         <v>12890000000.0</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="J24" s="0" t="n">
         <v>12717000000.0</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="K24" s="0" t="n">
         <v>12485000000.0</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="L24" s="0" t="n">
         <v>11385000000.0</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="M24" s="0" t="n">
         <v>10969000000.0</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="N24" s="0" t="n">
         <v>12569000000.0</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="O24" s="0" t="n">
         <v>12479000000.0</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="P24" s="0" t="n">
         <v>13304000000.0</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="Q24" s="0" t="n">
         <v>13119000000.0</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="R24" s="0" t="n">
         <v>12902000000.0</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="S24" s="0" t="n">
         <v>12829000000.0</v>
       </c>
-      <c r="S24" s="0" t="n">
+      <c r="T24" s="0" t="n">
         <v>13002000000.0</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="U24" s="0" t="n">
         <v>12777000000.0</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="V24" s="0" t="n">
         <v>12763000000.0</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="W24" s="0" t="n">
         <v>11834000000.0</v>
       </c>
-      <c r="W24" s="0" t="n">
+      <c r="X24" s="0" t="n">
         <v>11390000000.0</v>
       </c>
-      <c r="X24" s="0" t="n">
+      <c r="Y24" s="0" t="n">
         <v>11426000000.0</v>
       </c>
-      <c r="Y24" s="0" t="n">
+      <c r="Z24" s="0" t="n">
         <v>11440000000.0</v>
       </c>
-      <c r="Z24" s="0" t="n">
+      <c r="AA24" s="0" t="n">
         <v>10440000000.0</v>
       </c>
-      <c r="AA24" s="0" t="n">
+      <c r="AB24" s="0" t="n">
         <v>10122000000.0</v>
       </c>
-      <c r="AB24" s="0" t="n">
+      <c r="AC24" s="0" t="n">
         <v>10240000000.0</v>
       </c>
-      <c r="AC24" s="0" t="n">
+      <c r="AD24" s="0" t="n">
         <v>10281000000.0</v>
       </c>
-      <c r="AD24" s="0" t="n">
+      <c r="AE24" s="0" t="n">
         <v>9274000000.0</v>
       </c>
-      <c r="AE24" s="0" t="n">
+      <c r="AF24" s="0" t="n">
         <v>9524000000.0</v>
       </c>
-      <c r="AF24" s="0" t="n">
+      <c r="AG24" s="0" t="n">
         <v>7943000000.0</v>
       </c>
-      <c r="AG24" s="0" t="n">
+      <c r="AH24" s="0" t="n">
         <v>7890000000.0</v>
       </c>
-      <c r="AH24" s="0" t="n">
+      <c r="AI24" s="0" t="n">
         <v>7945000000.0</v>
       </c>
-      <c r="AI24" s="0" t="n">
+      <c r="AJ24" s="0" t="n">
         <v>7918000000.0</v>
       </c>
-      <c r="AJ24" s="0" t="n">
+      <c r="AK24" s="0" t="n">
         <v>7758000000.0</v>
       </c>
-      <c r="AK24" s="0" t="n">
+      <c r="AL24" s="0" t="n">
         <v>7300000000.0</v>
       </c>
-      <c r="AL24" s="0" t="n">
+      <c r="AM24" s="0" t="n">
         <v>7174000000.0</v>
       </c>
-      <c r="AM24" s="0" t="n">
+      <c r="AN24" s="0" t="n">
         <v>9007000000.0</v>
       </c>
-      <c r="AN24" s="0" t="n">
+      <c r="AO24" s="0" t="n">
         <v>8870000000.0</v>
       </c>
     </row>
@@ -3406,120 +3487,123 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
+        <v>26932000000.0</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>27299000000.0</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="D25" s="0" t="n">
         <v>24510000000.0</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>24048000000.0</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>23641000000.0</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="G25" s="0" t="n">
         <v>22256000000.0</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="H25" s="0" t="n">
         <v>22208000000.0</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="I25" s="0" t="n">
         <v>20428000000.0</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>19729000000.0</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="K25" s="0" t="n">
         <v>17998000000.0</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="L25" s="0" t="n">
         <v>17627000000.0</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>16420000000.0</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="N25" s="0" t="n">
         <v>17167000000.0</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="O25" s="0" t="n">
         <v>17256000000.0</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="P25" s="0" t="n">
         <v>17916000000.0</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="Q25" s="0" t="n">
         <v>17250000000.0</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="R25" s="0" t="n">
         <v>17281000000.0</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="S25" s="0" t="n">
         <v>17369000000.0</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="T25" s="0" t="n">
         <v>17312000000.0</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="U25" s="0" t="n">
         <v>17128000000.0</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="V25" s="0" t="n">
         <v>17204000000.0</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="W25" s="0" t="n">
         <v>16183000000.0</v>
       </c>
-      <c r="W25" s="0" t="n">
+      <c r="X25" s="0" t="n">
         <v>16583000000.0</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="Y25" s="0" t="n">
         <v>16655000000.0</v>
       </c>
-      <c r="Y25" s="0" t="n">
+      <c r="Z25" s="0" t="n">
         <v>16500000000.0</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="AA25" s="0" t="n">
         <v>15877000000.0</v>
       </c>
-      <c r="AA25" s="0" t="n">
+      <c r="AB25" s="0" t="n">
         <v>15756000000.0</v>
       </c>
-      <c r="AB25" s="0" t="n">
+      <c r="AC25" s="0" t="n">
         <v>15868000000.0</v>
       </c>
-      <c r="AC25" s="0" t="n">
+      <c r="AD25" s="0" t="n">
         <v>16001000000.0</v>
       </c>
-      <c r="AD25" s="0" t="n">
+      <c r="AE25" s="0" t="n">
         <v>14784000000.0</v>
       </c>
-      <c r="AE25" s="0" t="n">
+      <c r="AF25" s="0" t="n">
         <v>14902000000.0</v>
       </c>
-      <c r="AF25" s="0" t="n">
+      <c r="AG25" s="0" t="n">
         <v>12979000000.0</v>
       </c>
-      <c r="AG25" s="0" t="n">
+      <c r="AH25" s="0" t="n">
         <v>12997000000.0</v>
       </c>
-      <c r="AH25" s="0" t="n">
+      <c r="AI25" s="0" t="n">
         <v>13041000000.0</v>
       </c>
-      <c r="AI25" s="0" t="n">
+      <c r="AJ25" s="0" t="n">
         <v>12743000000.0</v>
       </c>
-      <c r="AJ25" s="0" t="n">
+      <c r="AK25" s="0" t="n">
         <v>12002000000.0</v>
       </c>
-      <c r="AK25" s="0" t="n">
+      <c r="AL25" s="0" t="n">
         <v>12246000000.0</v>
       </c>
-      <c r="AL25" s="0" t="n">
+      <c r="AM25" s="0" t="n">
         <v>12192000000.0</v>
       </c>
-      <c r="AM25" s="0" t="n">
+      <c r="AN25" s="0" t="n">
         <v>14185000000.0</v>
       </c>
-      <c r="AN25" s="0" t="n">
+      <c r="AO25" s="0" t="n">
         <v>14849000000.0</v>
       </c>
     </row>
@@ -3530,120 +3614,123 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
+        <v>5993000000.0</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>5986000000.0</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="D26" s="0" t="n">
         <v>5975000000.0</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="E26" s="0" t="n">
         <v>5958000000.0</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>5950000000.0</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="G26" s="0" t="n">
         <v>5954000000.0</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="H26" s="0" t="n">
         <v>7017000000.0</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <v>7006000000.0</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="J26" s="0" t="n">
         <v>6996000000.0</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="K26" s="0" t="n">
         <v>7041000000.0</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="L26" s="0" t="n">
         <v>7033000000.0</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <v>10190000000.0</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="N26" s="0" t="n">
         <v>10186000000.0</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="O26" s="0" t="n">
         <v>10206000000.0</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="P26" s="0" t="n">
         <v>10201000000.0</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="Q26" s="0" t="n">
         <v>10198000000.0</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="R26" s="0" t="n">
         <v>10195000000.0</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="S26" s="0" t="n">
         <v>10191000000.0</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="T26" s="0" t="n">
         <v>10195000000.0</v>
-      </c>
-      <c r="T26" s="0" t="n">
-        <v>10192000000.0</v>
       </c>
       <c r="U26" s="0" t="n">
         <v>10192000000.0</v>
       </c>
       <c r="V26" s="0" t="n">
+        <v>10192000000.0</v>
+      </c>
+      <c r="W26" s="0" t="n">
         <v>10202000000.0</v>
       </c>
-      <c r="W26" s="0" t="n">
+      <c r="X26" s="0" t="n">
         <v>10203000000.0</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="Y26" s="0" t="n">
         <v>10232000000.0</v>
       </c>
-      <c r="Y26" s="0" t="n">
+      <c r="Z26" s="0" t="n">
         <v>10261000000.0</v>
       </c>
-      <c r="Z26" s="0" t="n">
+      <c r="AA26" s="0" t="n">
         <v>10387000000.0</v>
       </c>
-      <c r="AA26" s="0" t="n">
+      <c r="AB26" s="0" t="n">
         <v>10385000000.0</v>
       </c>
-      <c r="AB26" s="0" t="n">
+      <c r="AC26" s="0" t="n">
         <v>10379000000.0</v>
       </c>
-      <c r="AC26" s="0" t="n">
+      <c r="AD26" s="0" t="n">
         <v>10385000000.0</v>
       </c>
-      <c r="AD26" s="0" t="n">
+      <c r="AE26" s="0" t="n">
         <v>10382000000.0</v>
       </c>
-      <c r="AE26" s="0" t="n">
+      <c r="AF26" s="0" t="n">
         <v>10380000000.0</v>
       </c>
-      <c r="AF26" s="0" t="n">
+      <c r="AG26" s="0" t="n">
         <v>10370000000.0</v>
       </c>
-      <c r="AG26" s="0" t="n">
+      <c r="AH26" s="0" t="n">
         <v>10367000000.0</v>
       </c>
-      <c r="AH26" s="0" t="n">
+      <c r="AI26" s="0" t="n">
         <v>10351000000.0</v>
       </c>
-      <c r="AI26" s="0" t="n">
+      <c r="AJ26" s="0" t="n">
         <v>10328000000.0</v>
       </c>
-      <c r="AJ26" s="0" t="n">
+      <c r="AK26" s="0" t="n">
         <v>10323000000.0</v>
       </c>
-      <c r="AK26" s="0" t="n">
+      <c r="AL26" s="0" t="n">
         <v>10319000000.0</v>
       </c>
-      <c r="AL26" s="0" t="n">
+      <c r="AM26" s="0" t="n">
         <v>10272000000.0</v>
       </c>
-      <c r="AM26" s="0" t="n">
+      <c r="AN26" s="0" t="n">
         <v>10265000000.0</v>
       </c>
-      <c r="AN26" s="0" t="n">
+      <c r="AO26" s="0" t="n">
         <v>9982000000.0</v>
       </c>
     </row>
@@ -3669,7 +3756,7 @@
         <v>19000000.0</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>22000000.0</v>
+        <v>19000000.0</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>22000000.0</v>
@@ -3684,7 +3771,7 @@
         <v>22000000.0</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>31000000.0</v>
+        <v>22000000.0</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>31000000.0</v>
@@ -3768,6 +3855,9 @@
         <v>31000000.0</v>
       </c>
       <c r="AN27" s="0" t="n">
+        <v>31000000.0</v>
+      </c>
+      <c r="AO27" s="0" t="n">
         <v>30000000.0</v>
       </c>
     </row>
@@ -3778,120 +3868,123 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
+        <v>5158000000.0</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>4440000000.0</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="D28" s="0" t="n">
         <v>3940000000.0</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="E28" s="0" t="n">
         <v>4188000000.0</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>4227000000.0</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="G28" s="0" t="n">
         <v>4435000000.0</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="H28" s="0" t="n">
         <v>8430000000.0</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="I28" s="0" t="n">
         <v>7818000000.0</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="J28" s="0" t="n">
         <v>7206000000.0</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>6763000000.0</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="L28" s="0" t="n">
         <v>6453000000.0</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="M28" s="0" t="n">
         <v>17939000000.0</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="N28" s="0" t="n">
         <v>16677000000.0</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="O28" s="0" t="n">
         <v>15746000000.0</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="P28" s="0" t="n">
         <v>14207000000.0</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="Q28" s="0" t="n">
         <v>13506000000.0</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="R28" s="0" t="n">
         <v>12736000000.0</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="S28" s="0" t="n">
         <v>12282000000.0</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="T28" s="0" t="n">
         <v>11865000000.0</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="U28" s="0" t="n">
         <v>11264000000.0</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="V28" s="0" t="n">
         <v>10535000000.0</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="W28" s="0" t="n">
         <v>9841000000.0</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="X28" s="0" t="n">
         <v>9393000000.0</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="Y28" s="0" t="n">
         <v>8569000000.0</v>
       </c>
-      <c r="Y28" s="0" t="n">
+      <c r="Z28" s="0" t="n">
         <v>7607000000.0</v>
       </c>
-      <c r="Z28" s="0" t="n">
+      <c r="AA28" s="0" t="n">
         <v>6775000000.0</v>
       </c>
-      <c r="AA28" s="0" t="n">
+      <c r="AB28" s="0" t="n">
         <v>6330000000.0</v>
       </c>
-      <c r="AB28" s="0" t="n">
+      <c r="AC28" s="0" t="n">
         <v>5430000000.0</v>
       </c>
-      <c r="AC28" s="0" t="n">
+      <c r="AD28" s="0" t="n">
         <v>4622000000.0</v>
       </c>
-      <c r="AD28" s="0" t="n">
+      <c r="AE28" s="0" t="n">
         <v>4004000000.0</v>
       </c>
-      <c r="AE28" s="0" t="n">
+      <c r="AF28" s="0" t="n">
         <v>3160000000.0</v>
       </c>
-      <c r="AF28" s="0" t="n">
+      <c r="AG28" s="0" t="n">
         <v>2587000000.0</v>
       </c>
-      <c r="AG28" s="0" t="n">
+      <c r="AH28" s="0" t="n">
         <v>1946000000.0</v>
       </c>
-      <c r="AH28" s="0" t="n">
+      <c r="AI28" s="0" t="n">
         <v>1274000000.0</v>
       </c>
-      <c r="AI28" s="0" t="n">
+      <c r="AJ28" s="0" t="n">
         <v>2454000000.0</v>
       </c>
-      <c r="AJ28" s="0" t="n">
+      <c r="AK28" s="0" t="n">
         <v>1838000000.0</v>
       </c>
-      <c r="AK28" s="0" t="n">
+      <c r="AL28" s="0" t="n">
         <v>1298000000.0</v>
       </c>
-      <c r="AL28" s="0" t="n">
+      <c r="AM28" s="0" t="n">
         <v>841000000.0</v>
       </c>
-      <c r="AM28" s="0" t="n">
+      <c r="AN28" s="0" t="n">
         <v>3778000000.0</v>
       </c>
-      <c r="AN28" s="0" t="n">
+      <c r="AO28" s="0" t="n">
         <v>2997000000.0</v>
       </c>
     </row>
@@ -3902,120 +3995,123 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
+        <v>506000000.0</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>531000000.0</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="D29" s="0" t="n">
         <v>540000000.0</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="E29" s="0" t="n">
         <v>548000000.0</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>559000000.0</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="G29" s="0" t="n">
         <v>580000000.0</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="H29" s="0" t="n">
         <v>5898000000.0</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="I29" s="0" t="n">
         <v>2663000000.0</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="J29" s="0" t="n">
         <v>2668000000.0</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="K29" s="0" t="n">
         <v>2206000000.0</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>1155000000.0</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>16200000000.0</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="N29" s="0" t="n">
         <v>15865000000.0</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="O29" s="0" t="n">
         <v>15749000000.0</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="P29" s="0" t="n">
         <v>15754000000.0</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="Q29" s="0" t="n">
         <v>15494000000.0</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="R29" s="0" t="n">
         <v>15062000000.0</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="S29" s="0" t="n">
         <v>14945000000.0</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="T29" s="0" t="n">
         <v>14517000000.0</v>
       </c>
-      <c r="T29" s="0" t="n">
+      <c r="U29" s="0" t="n">
         <v>13732000000.0</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="V29" s="0" t="n">
         <v>13017000000.0</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="W29" s="0" t="n">
         <v>12086000000.0</v>
       </c>
-      <c r="W29" s="0" t="n">
+      <c r="X29" s="0" t="n">
         <v>10918000000.0</v>
       </c>
-      <c r="X29" s="0" t="n">
+      <c r="Y29" s="0" t="n">
         <v>9598000000.0</v>
       </c>
-      <c r="Y29" s="0" t="n">
+      <c r="Z29" s="0" t="n">
         <v>8855000000.0</v>
       </c>
-      <c r="Z29" s="0" t="n">
+      <c r="AA29" s="0" t="n">
         <v>7853000000.0</v>
       </c>
-      <c r="AA29" s="0" t="n">
+      <c r="AB29" s="0" t="n">
         <v>6393000000.0</v>
       </c>
-      <c r="AB29" s="0" t="n">
+      <c r="AC29" s="0" t="n">
         <v>5130000000.0</v>
       </c>
-      <c r="AC29" s="0" t="n">
+      <c r="AD29" s="0" t="n">
         <v>3345000000.0</v>
       </c>
-      <c r="AD29" s="0" t="n">
+      <c r="AE29" s="0" t="n">
         <v>2035000000.0</v>
       </c>
-      <c r="AE29" s="0" t="n">
+      <c r="AF29" s="0" t="n">
         <v>1398000000.0</v>
       </c>
-      <c r="AF29" s="0" t="n">
+      <c r="AG29" s="0" t="n">
         <v>451000000.0</v>
       </c>
-      <c r="AG29" s="0" t="n">
+      <c r="AH29" s="0" t="n">
         <v>104000000.0</v>
       </c>
-      <c r="AH29" s="0" t="n">
+      <c r="AI29" s="0" t="n">
         <v>106000000.0</v>
       </c>
-      <c r="AI29" s="0" t="n">
+      <c r="AJ29" s="0" t="n">
         <v>100000000.0</v>
       </c>
-      <c r="AJ29" s="0" t="n">
+      <c r="AK29" s="0" t="n">
         <v>111000000.0</v>
       </c>
-      <c r="AK29" s="0" t="n">
+      <c r="AL29" s="0" t="n">
         <v>120000000.0</v>
       </c>
-      <c r="AL29" s="0" t="n">
+      <c r="AM29" s="0" t="n">
         <v>124000000.0</v>
       </c>
-      <c r="AM29" s="0" t="n">
+      <c r="AN29" s="0" t="n">
         <v>128000000.0</v>
       </c>
-      <c r="AN29" s="0" t="n">
+      <c r="AO29" s="0" t="n">
         <v>16000000.0</v>
       </c>
     </row>
@@ -4026,120 +4122,123 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
+        <v>8814000000.0</v>
+      </c>
+      <c r="C30" s="0" t="n">
         <v>7971000000.0</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="D30" s="0" t="n">
         <v>7306000000.0</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="E30" s="0" t="n">
         <v>7358000000.0</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>7324000000.0</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="G30" s="0" t="n">
         <v>8044000000.0</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="H30" s="0" t="n">
         <v>7906000000.0</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="I30" s="0" t="n">
         <v>10743000000.0</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="J30" s="0" t="n">
         <v>10160000000.0</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="K30" s="0" t="n">
         <v>10280000000.0</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="L30" s="0" t="n">
         <v>11069000000.0</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="M30" s="0" t="n">
         <v>10603000000.0</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="N30" s="0" t="n">
         <v>9729000000.0</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="O30" s="0" t="n">
         <v>8950000000.0</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="P30" s="0" t="n">
         <v>7327000000.0</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="Q30" s="0" t="n">
         <v>6868000000.0</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="R30" s="0" t="n">
         <v>6487000000.0</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="S30" s="0" t="n">
         <v>6073000000.0</v>
       </c>
-      <c r="S30" s="0" t="n">
+      <c r="T30" s="0" t="n">
         <v>6107000000.0</v>
       </c>
-      <c r="T30" s="0" t="n">
+      <c r="U30" s="0" t="n">
         <v>6307000000.0</v>
       </c>
-      <c r="U30" s="0" t="n">
+      <c r="V30" s="0" t="n">
         <v>6368000000.0</v>
       </c>
-      <c r="V30" s="0" t="n">
+      <c r="W30" s="0" t="n">
         <v>6574000000.0</v>
       </c>
-      <c r="W30" s="0" t="n">
+      <c r="X30" s="0" t="n">
         <v>7352000000.0</v>
       </c>
-      <c r="X30" s="0" t="n">
+      <c r="Y30" s="0" t="n">
         <v>7950000000.0</v>
       </c>
-      <c r="Y30" s="0" t="n">
+      <c r="Z30" s="0" t="n">
         <v>7506000000.0</v>
       </c>
-      <c r="Z30" s="0" t="n">
+      <c r="AA30" s="0" t="n">
         <v>8344000000.0</v>
       </c>
-      <c r="AA30" s="0" t="n">
+      <c r="AB30" s="0" t="n">
         <v>9875000000.0</v>
       </c>
-      <c r="AB30" s="0" t="n">
+      <c r="AC30" s="0" t="n">
         <v>10788000000.0</v>
       </c>
-      <c r="AC30" s="0" t="n">
+      <c r="AD30" s="0" t="n">
         <v>11826000000.0</v>
       </c>
-      <c r="AD30" s="0" t="n">
+      <c r="AE30" s="0" t="n">
         <v>12514000000.0</v>
       </c>
-      <c r="AE30" s="0" t="n">
+      <c r="AF30" s="0" t="n">
         <v>11909000000.0</v>
       </c>
-      <c r="AF30" s="0" t="n">
+      <c r="AG30" s="0" t="n">
         <v>12069000000.0</v>
       </c>
-      <c r="AG30" s="0" t="n">
+      <c r="AH30" s="0" t="n">
         <v>11680000000.0</v>
       </c>
-      <c r="AH30" s="0" t="n">
+      <c r="AI30" s="0" t="n">
         <v>11179000000.0</v>
       </c>
-      <c r="AI30" s="0" t="n">
+      <c r="AJ30" s="0" t="n">
         <v>12361000000.0</v>
       </c>
-      <c r="AJ30" s="0" t="n">
+      <c r="AK30" s="0" t="n">
         <v>11543000000.0</v>
       </c>
-      <c r="AK30" s="0" t="n">
+      <c r="AL30" s="0" t="n">
         <v>11363000000.0</v>
       </c>
-      <c r="AL30" s="0" t="n">
+      <c r="AM30" s="0" t="n">
         <v>10647000000.0</v>
       </c>
-      <c r="AM30" s="0" t="n">
+      <c r="AN30" s="0" t="n">
         <v>14082000000.0</v>
       </c>
-      <c r="AN30" s="0" t="n">
+      <c r="AO30" s="0" t="n">
         <v>13626000000.0</v>
       </c>
     </row>
@@ -4150,120 +4249,123 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
+        <v>8814000000.0</v>
+      </c>
+      <c r="C31" s="0" t="n">
         <v>7971000000.0</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="D31" s="0" t="n">
         <v>7306000000.0</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="E31" s="0" t="n">
         <v>7358000000.0</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="F31" s="0" t="n">
         <v>7324000000.0</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="G31" s="0" t="n">
         <v>8044000000.0</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="H31" s="0" t="n">
         <v>7906000000.0</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="I31" s="0" t="n">
         <v>10743000000.0</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="J31" s="0" t="n">
         <v>10160000000.0</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="K31" s="0" t="n">
         <v>10280000000.0</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="L31" s="0" t="n">
         <v>11069000000.0</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="M31" s="0" t="n">
         <v>10603000000.0</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="N31" s="0" t="n">
         <v>9729000000.0</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="O31" s="0" t="n">
         <v>8950000000.0</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="P31" s="0" t="n">
         <v>7327000000.0</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="Q31" s="0" t="n">
         <v>6868000000.0</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="R31" s="0" t="n">
         <v>6487000000.0</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="S31" s="0" t="n">
         <v>6073000000.0</v>
       </c>
-      <c r="S31" s="0" t="n">
+      <c r="T31" s="0" t="n">
         <v>6107000000.0</v>
       </c>
-      <c r="T31" s="0" t="n">
+      <c r="U31" s="0" t="n">
         <v>6307000000.0</v>
       </c>
-      <c r="U31" s="0" t="n">
+      <c r="V31" s="0" t="n">
         <v>6368000000.0</v>
       </c>
-      <c r="V31" s="0" t="n">
+      <c r="W31" s="0" t="n">
         <v>6574000000.0</v>
       </c>
-      <c r="W31" s="0" t="n">
+      <c r="X31" s="0" t="n">
         <v>7352000000.0</v>
       </c>
-      <c r="X31" s="0" t="n">
+      <c r="Y31" s="0" t="n">
         <v>7950000000.0</v>
       </c>
-      <c r="Y31" s="0" t="n">
+      <c r="Z31" s="0" t="n">
         <v>7506000000.0</v>
       </c>
-      <c r="Z31" s="0" t="n">
+      <c r="AA31" s="0" t="n">
         <v>8344000000.0</v>
       </c>
-      <c r="AA31" s="0" t="n">
+      <c r="AB31" s="0" t="n">
         <v>9875000000.0</v>
       </c>
-      <c r="AB31" s="0" t="n">
+      <c r="AC31" s="0" t="n">
         <v>10788000000.0</v>
       </c>
-      <c r="AC31" s="0" t="n">
+      <c r="AD31" s="0" t="n">
         <v>11826000000.0</v>
       </c>
-      <c r="AD31" s="0" t="n">
+      <c r="AE31" s="0" t="n">
         <v>12514000000.0</v>
       </c>
-      <c r="AE31" s="0" t="n">
+      <c r="AF31" s="0" t="n">
         <v>11909000000.0</v>
       </c>
-      <c r="AF31" s="0" t="n">
+      <c r="AG31" s="0" t="n">
         <v>12069000000.0</v>
       </c>
-      <c r="AG31" s="0" t="n">
+      <c r="AH31" s="0" t="n">
         <v>11680000000.0</v>
       </c>
-      <c r="AH31" s="0" t="n">
+      <c r="AI31" s="0" t="n">
         <v>11179000000.0</v>
       </c>
-      <c r="AI31" s="0" t="n">
+      <c r="AJ31" s="0" t="n">
         <v>12361000000.0</v>
       </c>
-      <c r="AJ31" s="0" t="n">
+      <c r="AK31" s="0" t="n">
         <v>11543000000.0</v>
       </c>
-      <c r="AK31" s="0" t="n">
+      <c r="AL31" s="0" t="n">
         <v>11363000000.0</v>
       </c>
-      <c r="AL31" s="0" t="n">
+      <c r="AM31" s="0" t="n">
         <v>10647000000.0</v>
       </c>
-      <c r="AM31" s="0" t="n">
+      <c r="AN31" s="0" t="n">
         <v>14082000000.0</v>
       </c>
-      <c r="AN31" s="0" t="n">
+      <c r="AO31" s="0" t="n">
         <v>13626000000.0</v>
       </c>
     </row>
@@ -4274,120 +4376,123 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
+        <v>35746000000.0</v>
+      </c>
+      <c r="C32" s="0" t="n">
         <v>35403000000.0</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="D32" s="0" t="n">
         <v>31949000000.0</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="E32" s="0" t="n">
         <v>31541000000.0</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="F32" s="0" t="n">
         <v>31100000000.0</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="G32" s="0" t="n">
         <v>30435000000.0</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="H32" s="0" t="n">
         <v>30114000000.0</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="I32" s="0" t="n">
         <v>31171000000.0</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="J32" s="0" t="n">
         <v>29889000000.0</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="K32" s="0" t="n">
         <v>28278000000.0</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="L32" s="0" t="n">
         <v>28696000000.0</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="M32" s="0" t="n">
         <v>27023000000.0</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="N32" s="0" t="n">
         <v>26896000000.0</v>
       </c>
-      <c r="N32" s="0" t="n">
+      <c r="O32" s="0" t="n">
         <v>26206000000.0</v>
       </c>
-      <c r="O32" s="0" t="n">
+      <c r="P32" s="0" t="n">
         <v>25243000000.0</v>
       </c>
-      <c r="P32" s="0" t="n">
+      <c r="Q32" s="0" t="n">
         <v>24118000000.0</v>
       </c>
-      <c r="Q32" s="0" t="n">
+      <c r="R32" s="0" t="n">
         <v>23768000000.0</v>
       </c>
-      <c r="R32" s="0" t="n">
+      <c r="S32" s="0" t="n">
         <v>23442000000.0</v>
       </c>
-      <c r="S32" s="0" t="n">
+      <c r="T32" s="0" t="n">
         <v>23419000000.0</v>
       </c>
-      <c r="T32" s="0" t="n">
+      <c r="U32" s="0" t="n">
         <v>23435000000.0</v>
       </c>
-      <c r="U32" s="0" t="n">
+      <c r="V32" s="0" t="n">
         <v>23572000000.0</v>
       </c>
-      <c r="V32" s="0" t="n">
+      <c r="W32" s="0" t="n">
         <v>22757000000.0</v>
       </c>
-      <c r="W32" s="0" t="n">
+      <c r="X32" s="0" t="n">
         <v>23935000000.0</v>
       </c>
-      <c r="X32" s="0" t="n">
+      <c r="Y32" s="0" t="n">
         <v>24605000000.0</v>
       </c>
-      <c r="Y32" s="0" t="n">
+      <c r="Z32" s="0" t="n">
         <v>24006000000.0</v>
       </c>
-      <c r="Z32" s="0" t="n">
+      <c r="AA32" s="0" t="n">
         <v>24221000000.0</v>
       </c>
-      <c r="AA32" s="0" t="n">
+      <c r="AB32" s="0" t="n">
         <v>25631000000.0</v>
       </c>
-      <c r="AB32" s="0" t="n">
+      <c r="AC32" s="0" t="n">
         <v>26656000000.0</v>
       </c>
-      <c r="AC32" s="0" t="n">
+      <c r="AD32" s="0" t="n">
         <v>27827000000.0</v>
       </c>
-      <c r="AD32" s="0" t="n">
+      <c r="AE32" s="0" t="n">
         <v>27298000000.0</v>
       </c>
-      <c r="AE32" s="0" t="n">
+      <c r="AF32" s="0" t="n">
         <v>26811000000.0</v>
       </c>
-      <c r="AF32" s="0" t="n">
+      <c r="AG32" s="0" t="n">
         <v>25048000000.0</v>
       </c>
-      <c r="AG32" s="0" t="n">
+      <c r="AH32" s="0" t="n">
         <v>24677000000.0</v>
       </c>
-      <c r="AH32" s="0" t="n">
+      <c r="AI32" s="0" t="n">
         <v>24220000000.0</v>
       </c>
-      <c r="AI32" s="0" t="n">
+      <c r="AJ32" s="0" t="n">
         <v>25104000000.0</v>
       </c>
-      <c r="AJ32" s="0" t="n">
+      <c r="AK32" s="0" t="n">
         <v>23545000000.0</v>
       </c>
-      <c r="AK32" s="0" t="n">
+      <c r="AL32" s="0" t="n">
         <v>23609000000.0</v>
       </c>
-      <c r="AL32" s="0" t="n">
+      <c r="AM32" s="0" t="n">
         <v>22839000000.0</v>
       </c>
-      <c r="AM32" s="0" t="n">
+      <c r="AN32" s="0" t="n">
         <v>28267000000.0</v>
       </c>
-      <c r="AN32" s="0" t="n">
+      <c r="AO32" s="0" t="n">
         <v>28475000000.0</v>
       </c>
     </row>
@@ -4398,120 +4503,123 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
+        <v>334313000.0</v>
+      </c>
+      <c r="C33" s="0" t="n">
         <v>334015000.0</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="D33" s="0" t="n">
         <v>333918000.0</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="E33" s="0" t="n">
         <v>333830000.0</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="F33" s="0" t="n">
         <v>333703000.0</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="G33" s="0" t="n">
         <v>333477000.0</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="H33" s="0" t="n">
         <v>333408000.0</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="I33" s="0" t="n">
         <v>370387000.0</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="J33" s="0" t="n">
         <v>370326000.0</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="K33" s="0" t="n">
         <v>375697000.0</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="L33" s="0" t="n">
         <v>387178000.0</v>
       </c>
-      <c r="L33" s="0" t="n">
+      <c r="M33" s="0" t="n">
         <v>390343000.0</v>
       </c>
-      <c r="M33" s="0" t="n">
+      <c r="N33" s="0" t="n">
         <v>393482000.0</v>
       </c>
-      <c r="N33" s="0" t="n">
+      <c r="O33" s="0" t="n">
         <v>394512000.0</v>
       </c>
-      <c r="O33" s="0" t="n">
+      <c r="P33" s="0" t="n">
         <v>394458000.0</v>
       </c>
-      <c r="P33" s="0" t="n">
+      <c r="Q33" s="0" t="n">
         <v>397457000.0</v>
       </c>
-      <c r="Q33" s="0" t="n">
+      <c r="R33" s="0" t="n">
         <v>402781000.0</v>
       </c>
-      <c r="R33" s="0" t="n">
+      <c r="S33" s="0" t="n">
         <v>404046000.0</v>
       </c>
-      <c r="S33" s="0" t="n">
+      <c r="T33" s="0" t="n">
         <v>409166000.0</v>
       </c>
-      <c r="T33" s="0" t="n">
+      <c r="U33" s="0" t="n">
         <v>419382000.0</v>
       </c>
-      <c r="U33" s="0" t="n">
+      <c r="V33" s="0" t="n">
         <v>428158000.0</v>
       </c>
-      <c r="V33" s="0" t="n">
+      <c r="W33" s="0" t="n">
         <v>440150000.0</v>
       </c>
-      <c r="W33" s="0" t="n">
+      <c r="X33" s="0" t="n">
         <v>452845000.0</v>
       </c>
-      <c r="X33" s="0" t="n">
+      <c r="Y33" s="0" t="n">
         <v>468082000.0</v>
       </c>
-      <c r="Y33" s="0" t="n">
+      <c r="Z33" s="0" t="n">
         <v>475379000.0</v>
       </c>
-      <c r="Z33" s="0" t="n">
+      <c r="AA33" s="0" t="n">
         <v>486969000.0</v>
       </c>
-      <c r="AA33" s="0" t="n">
+      <c r="AB33" s="0" t="n">
         <v>504006000.0</v>
       </c>
-      <c r="AB33" s="0" t="n">
+      <c r="AC33" s="0" t="n">
         <v>515426000.0</v>
       </c>
-      <c r="AC33" s="0" t="n">
+      <c r="AD33" s="0" t="n">
         <v>533878000.0</v>
       </c>
-      <c r="AD33" s="0" t="n">
+      <c r="AE33" s="0" t="n">
         <v>548824000.0</v>
       </c>
-      <c r="AE33" s="0" t="n">
+      <c r="AF33" s="0" t="n">
         <v>557039000.0</v>
       </c>
-      <c r="AF33" s="0" t="n">
+      <c r="AG33" s="0" t="n">
         <v>570501000.0</v>
       </c>
-      <c r="AG33" s="0" t="n">
+      <c r="AH33" s="0" t="n">
         <v>575418000.0</v>
       </c>
-      <c r="AH33" s="0" t="n">
+      <c r="AI33" s="0" t="n">
         <v>575216000.0</v>
       </c>
-      <c r="AI33" s="0" t="n">
+      <c r="AJ33" s="0" t="n">
         <v>575181000.0</v>
       </c>
-      <c r="AJ33" s="0" t="n">
+      <c r="AK33" s="0" t="n">
         <v>574796000.0</v>
       </c>
-      <c r="AK33" s="0" t="n">
+      <c r="AL33" s="0" t="n">
         <v>574467000.0</v>
       </c>
-      <c r="AL33" s="0" t="n">
+      <c r="AM33" s="0" t="n">
         <v>569340000.0</v>
       </c>
-      <c r="AM33" s="0" t="n">
+      <c r="AN33" s="0" t="n">
         <v>569073000.0</v>
       </c>
-      <c r="AN33" s="0" t="n">
+      <c r="AO33" s="0" t="n">
         <v>567491000.0</v>
       </c>
     </row>
@@ -4522,120 +4630,123 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
+        <v>6193000000.0</v>
+      </c>
+      <c r="C34" s="0" t="n">
         <v>5284000000.0</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="D34" s="0" t="n">
         <v>4691000000.0</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="E34" s="0" t="n">
         <v>4791000000.0</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="F34" s="0" t="n">
         <v>4735000000.0</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="G34" s="0" t="n">
         <v>5303000000.0</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="H34" s="0" t="n">
         <v>5217000000.0</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="I34" s="0" t="n">
         <v>8003000000.0</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="J34" s="0" t="n">
         <v>7412000000.0</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="K34" s="0" t="n">
         <v>7501000000.0</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="L34" s="0" t="n">
         <v>8268000000.0</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="M34" s="0" t="n">
         <v>9513000000.0</v>
       </c>
-      <c r="M34" s="0" t="n">
+      <c r="N34" s="0" t="n">
         <v>8584000000.0</v>
       </c>
-      <c r="N34" s="0" t="n">
+      <c r="O34" s="0" t="n">
         <v>7812000000.0</v>
       </c>
-      <c r="O34" s="0" t="n">
+      <c r="P34" s="0" t="n">
         <v>6277000000.0</v>
       </c>
-      <c r="P34" s="0" t="n">
+      <c r="Q34" s="0" t="n">
         <v>5810000000.0</v>
       </c>
-      <c r="Q34" s="0" t="n">
+      <c r="R34" s="0" t="n">
         <v>5439000000.0</v>
       </c>
-      <c r="R34" s="0" t="n">
+      <c r="S34" s="0" t="n">
         <v>4995000000.0</v>
       </c>
-      <c r="S34" s="0" t="n">
+      <c r="T34" s="0" t="n">
         <v>5002000000.0</v>
       </c>
-      <c r="T34" s="0" t="n">
+      <c r="U34" s="0" t="n">
         <v>5177000000.0</v>
       </c>
-      <c r="U34" s="0" t="n">
+      <c r="V34" s="0" t="n">
         <v>5202000000.0</v>
       </c>
-      <c r="V34" s="0" t="n">
+      <c r="W34" s="0" t="n">
         <v>5398000000.0</v>
       </c>
-      <c r="W34" s="0" t="n">
+      <c r="X34" s="0" t="n">
         <v>6165000000.0</v>
       </c>
-      <c r="X34" s="0" t="n">
+      <c r="Y34" s="0" t="n">
         <v>6736000000.0</v>
       </c>
-      <c r="Y34" s="0" t="n">
+      <c r="Z34" s="0" t="n">
         <v>6278000000.0</v>
       </c>
-      <c r="Z34" s="0" t="n">
+      <c r="AA34" s="0" t="n">
         <v>7009000000.0</v>
       </c>
-      <c r="AA34" s="0" t="n">
+      <c r="AB34" s="0" t="n">
         <v>8500000000.0</v>
       </c>
-      <c r="AB34" s="0" t="n">
+      <c r="AC34" s="0" t="n">
         <v>9348000000.0</v>
       </c>
-      <c r="AC34" s="0" t="n">
+      <c r="AD34" s="0" t="n">
         <v>10351000000.0</v>
       </c>
-      <c r="AD34" s="0" t="n">
+      <c r="AE34" s="0" t="n">
         <v>11005000000.0</v>
       </c>
-      <c r="AE34" s="0" t="n">
+      <c r="AF34" s="0" t="n">
         <v>10377000000.0</v>
       </c>
-      <c r="AF34" s="0" t="n">
+      <c r="AG34" s="0" t="n">
         <v>10515000000.0</v>
       </c>
-      <c r="AG34" s="0" t="n">
+      <c r="AH34" s="0" t="n">
         <v>10099000000.0</v>
       </c>
-      <c r="AH34" s="0" t="n">
+      <c r="AI34" s="0" t="n">
         <v>9550000000.0</v>
       </c>
-      <c r="AI34" s="0" t="n">
+      <c r="AJ34" s="0" t="n">
         <v>10703000000.0</v>
       </c>
-      <c r="AJ34" s="0" t="n">
+      <c r="AK34" s="0" t="n">
         <v>9864000000.0</v>
       </c>
-      <c r="AK34" s="0" t="n">
+      <c r="AL34" s="0" t="n">
         <v>9619000000.0</v>
       </c>
-      <c r="AL34" s="0" t="n">
+      <c r="AM34" s="0" t="n">
         <v>8885000000.0</v>
       </c>
-      <c r="AM34" s="0" t="n">
+      <c r="AN34" s="0" t="n">
         <v>12247000000.0</v>
       </c>
-      <c r="AN34" s="0" t="n">
+      <c r="AO34" s="0" t="n">
         <v>11695000000.0</v>
       </c>
     </row>
@@ -4645,121 +4756,126 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C35" s="0" t="n">
         <v>15022000000.0</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="D35" s="0" t="n">
         <v>12654000000.0</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="E35" s="0" t="n">
         <v>12267000000.0</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="F35" s="0" t="n">
         <v>13015000000.0</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="G35" s="0" t="n">
         <v>12467000000.0</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="H35" s="0" t="n">
         <v>11505000000.0</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="I35" s="0" t="n">
         <v>9042000000.0</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="J35" s="0" t="n">
         <v>9123000000.0</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="K35" s="0" t="n">
         <v>8094000000.0</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="L35" s="0" t="n">
         <v>7193000000.0</v>
       </c>
-      <c r="L35" s="0" t="n">
+      <c r="M35" s="0" t="n">
         <v>5221000000.0</v>
       </c>
-      <c r="M35" s="0" t="n">
+      <c r="N35" s="0" t="n">
         <v>5731000000.0</v>
       </c>
-      <c r="N35" s="0" t="n">
+      <c r="O35" s="0" t="n">
         <v>5784000000.0</v>
       </c>
-      <c r="O35" s="0" t="n">
+      <c r="P35" s="0" t="n">
         <v>6409000000.0</v>
       </c>
-      <c r="P35" s="0" t="n">
+      <c r="Q35" s="0" t="n">
         <v>7041000000.0</v>
       </c>
-      <c r="Q35" s="0" t="n">
+      <c r="R35" s="0" t="n">
         <v>7370000000.0</v>
       </c>
-      <c r="R35" s="0" t="n">
+      <c r="S35" s="0" t="n">
         <v>6956000000.0</v>
       </c>
-      <c r="S35" s="0" t="n">
+      <c r="T35" s="0" t="n">
         <v>7254000000.0</v>
       </c>
-      <c r="T35" s="0" t="n">
+      <c r="U35" s="0" t="n">
         <v>7018000000.0</v>
       </c>
-      <c r="U35" s="0" t="n">
+      <c r="V35" s="0" t="n">
         <v>6448000000.0</v>
       </c>
-      <c r="V35" s="0" t="n">
+      <c r="W35" s="0" t="n">
         <v>6033000000.0</v>
       </c>
-      <c r="W35" s="0" t="n">
+      <c r="X35" s="0" t="n">
         <v>5241000000.0</v>
       </c>
-      <c r="X35" s="0" t="n">
+      <c r="Y35" s="0" t="n">
         <v>4996000000.0</v>
       </c>
-      <c r="Y35" s="0" t="n">
+      <c r="Z35" s="0" t="n">
         <v>5171000000.0</v>
       </c>
-      <c r="Z35" s="0" t="n">
+      <c r="AA35" s="0" t="n">
         <v>4419000000.0</v>
       </c>
-      <c r="AA35" s="0" t="n">
+      <c r="AB35" s="0" t="n">
         <v>4082000000.0</v>
       </c>
-      <c r="AB35" s="0" t="n">
+      <c r="AC35" s="0" t="n">
         <v>3493000000.0</v>
       </c>
-      <c r="AC35" s="0" t="n">
+      <c r="AD35" s="0" t="n">
         <v>2720000000.0</v>
       </c>
-      <c r="AD35" s="0" t="n">
+      <c r="AE35" s="0" t="n">
         <v>1375000000.0</v>
       </c>
-      <c r="AE35" s="0" t="n">
+      <c r="AF35" s="0" t="n">
         <v>1471000000.0</v>
       </c>
-      <c r="AF35" s="0" t="n">
+      <c r="AG35" s="0" t="n">
         <v>1186000000.0</v>
       </c>
-      <c r="AG35" s="0" t="n">
+      <c r="AH35" s="0" t="n">
         <v>1538000000.0</v>
       </c>
-      <c r="AH35" s="0" t="n">
+      <c r="AI35" s="0" t="n">
         <v>1663000000.0</v>
       </c>
-      <c r="AI35" s="0" t="n">
+      <c r="AJ35" s="0" t="n">
         <v>806000000.0</v>
       </c>
-      <c r="AJ35" s="0" t="n">
+      <c r="AK35" s="0" t="n">
         <v>2389000000.0</v>
       </c>
-      <c r="AK35" s="0" t="n">
+      <c r="AL35" s="0" t="n">
         <v>2347000000.0</v>
       </c>
-      <c r="AL35" s="0" t="n">
+      <c r="AM35" s="0" t="n">
         <v>2914000000.0</v>
       </c>
-      <c r="AM35" s="0" t="n">
+      <c r="AN35" s="0" t="n">
         <v>-68000000.0</v>
       </c>
-      <c r="AN35" s="0" t="n">
+      <c r="AO35" s="0" t="n">
         <v>928000000.0</v>
       </c>
     </row>
@@ -4769,121 +4885,126 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C36" s="0" t="n">
         <v>17489000000.0</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="D36" s="0" t="n">
         <v>15499000000.0</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="E36" s="0" t="n">
         <v>15496000000.0</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="F36" s="0" t="n">
         <v>14847000000.0</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="G36" s="0" t="n">
         <v>13551000000.0</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="H36" s="0" t="n">
         <v>12070000000.0</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="I36" s="0" t="n">
         <v>10402000000.0</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="J36" s="0" t="n">
         <v>9904000000.0</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="K36" s="0" t="n">
         <v>9387000000.0</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="L36" s="0" t="n">
         <v>8669000000.0</v>
       </c>
-      <c r="L36" s="0" t="n">
+      <c r="M36" s="0" t="n">
         <v>8540000000.0</v>
       </c>
-      <c r="M36" s="0" t="n">
+      <c r="N36" s="0" t="n">
         <v>8613000000.0</v>
       </c>
-      <c r="N36" s="0" t="n">
+      <c r="O36" s="0" t="n">
         <v>8619000000.0</v>
       </c>
-      <c r="O36" s="0" t="n">
+      <c r="P36" s="0" t="n">
         <v>8915000000.0</v>
       </c>
-      <c r="P36" s="0" t="n">
+      <c r="Q36" s="0" t="n">
         <v>9059000000.0</v>
       </c>
-      <c r="Q36" s="0" t="n">
+      <c r="R36" s="0" t="n">
         <v>9032000000.0</v>
       </c>
-      <c r="R36" s="0" t="n">
+      <c r="S36" s="0" t="n">
         <v>8981000000.0</v>
       </c>
-      <c r="S36" s="0" t="n">
+      <c r="T36" s="0" t="n">
         <v>9088000000.0</v>
       </c>
-      <c r="T36" s="0" t="n">
+      <c r="U36" s="0" t="n">
         <v>9105000000.0</v>
       </c>
-      <c r="U36" s="0" t="n">
+      <c r="V36" s="0" t="n">
         <v>9102000000.0</v>
       </c>
-      <c r="V36" s="0" t="n">
+      <c r="W36" s="0" t="n">
         <v>8028000000.0</v>
       </c>
-      <c r="W36" s="0" t="n">
+      <c r="X36" s="0" t="n">
         <v>8318000000.0</v>
       </c>
-      <c r="X36" s="0" t="n">
+      <c r="Y36" s="0" t="n">
         <v>8313000000.0</v>
       </c>
-      <c r="Y36" s="0" t="n">
+      <c r="Z36" s="0" t="n">
         <v>8267000000.0</v>
       </c>
-      <c r="Z36" s="0" t="n">
+      <c r="AA36" s="0" t="n">
         <v>7045000000.0</v>
       </c>
-      <c r="AA36" s="0" t="n">
+      <c r="AB36" s="0" t="n">
         <v>6811000000.0</v>
       </c>
-      <c r="AB36" s="0" t="n">
+      <c r="AC36" s="0" t="n">
         <v>6824000000.0</v>
       </c>
-      <c r="AC36" s="0" t="n">
+      <c r="AD36" s="0" t="n">
         <v>6827000000.0</v>
       </c>
-      <c r="AD36" s="0" t="n">
+      <c r="AE36" s="0" t="n">
         <v>5835000000.0</v>
       </c>
-      <c r="AE36" s="0" t="n">
+      <c r="AF36" s="0" t="n">
         <v>5889000000.0</v>
       </c>
-      <c r="AF36" s="0" t="n">
+      <c r="AG36" s="0" t="n">
         <v>4421000000.0</v>
       </c>
-      <c r="AG36" s="0" t="n">
+      <c r="AH36" s="0" t="n">
         <v>4423000000.0</v>
       </c>
-      <c r="AH36" s="0" t="n">
+      <c r="AI36" s="0" t="n">
         <v>4400000000.0</v>
       </c>
-      <c r="AI36" s="0" t="n">
+      <c r="AJ36" s="0" t="n">
         <v>4352000000.0</v>
       </c>
-      <c r="AJ36" s="0" t="n">
+      <c r="AK36" s="0" t="n">
         <v>4353000000.0</v>
       </c>
-      <c r="AK36" s="0" t="n">
+      <c r="AL36" s="0" t="n">
         <v>4026000000.0</v>
       </c>
-      <c r="AL36" s="0" t="n">
+      <c r="AM36" s="0" t="n">
         <v>4032000000.0</v>
       </c>
-      <c r="AM36" s="0" t="n">
+      <c r="AN36" s="0" t="n">
         <v>5833000000.0</v>
       </c>
-      <c r="AN36" s="0" t="n">
+      <c r="AO36" s="0" t="n">
         <v>5865000000.0</v>
       </c>
     </row>
